--- a/面试.xlsx
+++ b/面试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="上海大汉三通" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>上海呆了三天，感觉上海没有在杭州出行方便，地铁人有点多。</a:t>
+            <a:t>上海呆了三天，感觉上海地铁上人真是有点多。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -240,6 +240,25 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			IOC:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动态代理。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>AOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>应用于事务管理等</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>		2</a:t>
           </a:r>
           <a:r>
@@ -255,23 +274,525 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、给了一段带码，分析代码在什么情况下或出错。（该代码会在</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id=""/>
+            <a:t>、给了一段带码，分析代码在什么情况下或出错。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、实现一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的阶乘函数。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>面试题：主要问了一些多线程方面的知识，个人感觉通信公司对多线程，和程序的稳定性比较重视，以前在通信公司待过一段时间，在通信公司技术提高是挺明显的。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、多线程的实现方式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我认为是有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>种</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Thread</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Runnable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、线程池、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Callable</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、消息通信方式，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>sleep</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>wait</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的区别</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>线程通信有两种：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>				1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>synchronized	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>notify()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Contion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类的对象的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>await()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>signal()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			sleep</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的区别：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>				sleep</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不释放锁，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>释放锁</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等等。。。。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（代码会在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>ConcurrencyTest</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -283,92 +804,20 @@
             <a:t>项目中，有兴趣的可以研究一下</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>）</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>		4</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、实现一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>n</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的阶乘函数。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>面试题：主要问了一些多线程方面的知识，个人感觉通信公司对多线程，和程序的稳定性比较重视，以前在通信公司待过一段时间，在通信公司技术提高是挺明显的。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>		1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、多线程的实现方式</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>		2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>、消息通信方式，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>sleep</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>与</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>wait</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的区别</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>等等。。。。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>

--- a/面试.xlsx
+++ b/面试.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上海大汉三通" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="永诚财产保险" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -821,6 +821,382 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="152400"/>
+          <a:ext cx="10344150" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	2018</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>日再次来到上海，参加永诚财产面试。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我面的是高级开发工程师，但是我是奔着初级去的，大公司职级提升不好提，刚毕业一年多的刚进去就是高级也不符合实际。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>面试有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>位领导，部门领导，人力资源领导等，没问什么技术方面的问题。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>	 hr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主要问一些为什么从上家离职？这个实话说就行，反正公司的坏话是不应该也是不能说的，毕竟说是非者必是是非人。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>又问第一家公司为什么离职？这个我就想多说点了，这个其实我也不想离职，公司组织架构调整被裁也没办法，北京公司就招了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人，不到俩月中华区董事长换任第二天就收到被裁的消息，招的全裁了，我也想不通为什么，应届生本来就成本低还先处理应届生。部门领导说是日本汇率大变，公司经济问题。部门领导对我们新人很好，也教会了很多职场规则，还有工作技能等，很感谢那位领导。散伙饭上有位同事还给我推荐工作，这位同事也是不善言辞的人，给我说这个的时候也是红着脸，我想这应该不是他的意思，这个都能猜到，如今这家公司已经削减了一半人，原来工作的分部都关了，看来经济问题不是一般的大。进入第二家公司，也挺大，就是职位不是很正经，生活所迫先做着，进去后没人带，培训也是靠自己自学，不会有人手把手的交，有不会的问题自己百度，实在解决不了的看哪位同事有时间去请教，呆了一段时间感觉没什么可以提升的就裸辞了。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>应届生的话进大公司是首要的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接着问期望薪资等******</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>部门领导问的就比较实际了，工作中有什么收获，我想了一下说是阅读代码的能力提高了不少。面试还是没有经验，现在想想很多可以说，比如问题排查能力与解决问题能力提高，丰富保险知识等。*******</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>然后做了一张测试题，我一看题都有点蒙，框架用了这么久，好久看过这么底层的知识，做着这张卷子感觉跟裸考似的。后面就可想而知。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>下午又去了一家公司，公司小就不介绍了，题很简单的题都做的出来，面试的时候面试官也问了很多知识，有我知道的也有不知道的，然后下面我深入了解后，感觉面试官有点浮夸。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1118,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1135,12 +1511,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
